--- a/stock/data/LG이노텍.xlsx
+++ b/stock/data/LG이노텍.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3878"/>
+  <dimension ref="A1:G3911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89639,10 +89639,769 @@
         <v>196700</v>
       </c>
       <c r="F3878" t="n">
-        <v>87313</v>
+        <v>87558</v>
       </c>
       <c r="G3878" t="n">
         <v>-0.4050632911392406</v>
+      </c>
+    </row>
+    <row r="3879">
+      <c r="A3879" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3879" t="n">
+        <v>198800</v>
+      </c>
+      <c r="C3879" t="n">
+        <v>207500</v>
+      </c>
+      <c r="D3879" t="n">
+        <v>198700</v>
+      </c>
+      <c r="E3879" t="n">
+        <v>206000</v>
+      </c>
+      <c r="F3879" t="n">
+        <v>244842</v>
+      </c>
+      <c r="G3879" t="n">
+        <v>4.72801220132181</v>
+      </c>
+    </row>
+    <row r="3880">
+      <c r="A3880" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3880" t="n">
+        <v>205000</v>
+      </c>
+      <c r="C3880" t="n">
+        <v>207500</v>
+      </c>
+      <c r="D3880" t="n">
+        <v>203000</v>
+      </c>
+      <c r="E3880" t="n">
+        <v>204500</v>
+      </c>
+      <c r="F3880" t="n">
+        <v>115148</v>
+      </c>
+      <c r="G3880" t="n">
+        <v>-0.7281553398058253</v>
+      </c>
+    </row>
+    <row r="3881">
+      <c r="A3881" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3881" t="n">
+        <v>202500</v>
+      </c>
+      <c r="C3881" t="n">
+        <v>202500</v>
+      </c>
+      <c r="D3881" t="n">
+        <v>198200</v>
+      </c>
+      <c r="E3881" t="n">
+        <v>198300</v>
+      </c>
+      <c r="F3881" t="n">
+        <v>119435</v>
+      </c>
+      <c r="G3881" t="n">
+        <v>-3.031784841075795</v>
+      </c>
+    </row>
+    <row r="3882">
+      <c r="A3882" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3882" t="n">
+        <v>201000</v>
+      </c>
+      <c r="C3882" t="n">
+        <v>202500</v>
+      </c>
+      <c r="D3882" t="n">
+        <v>196200</v>
+      </c>
+      <c r="E3882" t="n">
+        <v>198500</v>
+      </c>
+      <c r="F3882" t="n">
+        <v>127761</v>
+      </c>
+      <c r="G3882" t="n">
+        <v>0.1008572869389814</v>
+      </c>
+    </row>
+    <row r="3883">
+      <c r="A3883" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3883" t="n">
+        <v>195700</v>
+      </c>
+      <c r="C3883" t="n">
+        <v>199500</v>
+      </c>
+      <c r="D3883" t="n">
+        <v>192700</v>
+      </c>
+      <c r="E3883" t="n">
+        <v>197400</v>
+      </c>
+      <c r="F3883" t="n">
+        <v>112745</v>
+      </c>
+      <c r="G3883" t="n">
+        <v>-0.5541561712846348</v>
+      </c>
+    </row>
+    <row r="3884">
+      <c r="A3884" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3884" t="n">
+        <v>199700</v>
+      </c>
+      <c r="C3884" t="n">
+        <v>206500</v>
+      </c>
+      <c r="D3884" t="n">
+        <v>195900</v>
+      </c>
+      <c r="E3884" t="n">
+        <v>205000</v>
+      </c>
+      <c r="F3884" t="n">
+        <v>182774</v>
+      </c>
+      <c r="G3884" t="n">
+        <v>3.850050658561297</v>
+      </c>
+    </row>
+    <row r="3885">
+      <c r="A3885" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3885" t="n">
+        <v>205000</v>
+      </c>
+      <c r="C3885" t="n">
+        <v>207000</v>
+      </c>
+      <c r="D3885" t="n">
+        <v>197600</v>
+      </c>
+      <c r="E3885" t="n">
+        <v>198100</v>
+      </c>
+      <c r="F3885" t="n">
+        <v>149097</v>
+      </c>
+      <c r="G3885" t="n">
+        <v>-3.365853658536586</v>
+      </c>
+    </row>
+    <row r="3886">
+      <c r="A3886" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3886" t="n">
+        <v>194200</v>
+      </c>
+      <c r="C3886" t="n">
+        <v>197700</v>
+      </c>
+      <c r="D3886" t="n">
+        <v>191000</v>
+      </c>
+      <c r="E3886" t="n">
+        <v>195600</v>
+      </c>
+      <c r="F3886" t="n">
+        <v>144876</v>
+      </c>
+      <c r="G3886" t="n">
+        <v>-1.261988894497728</v>
+      </c>
+    </row>
+    <row r="3887">
+      <c r="A3887" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3887" t="n">
+        <v>199400</v>
+      </c>
+      <c r="C3887" t="n">
+        <v>204000</v>
+      </c>
+      <c r="D3887" t="n">
+        <v>196100</v>
+      </c>
+      <c r="E3887" t="n">
+        <v>202000</v>
+      </c>
+      <c r="F3887" t="n">
+        <v>192191</v>
+      </c>
+      <c r="G3887" t="n">
+        <v>3.2719836400818</v>
+      </c>
+    </row>
+    <row r="3888">
+      <c r="A3888" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3888" t="n">
+        <v>200000</v>
+      </c>
+      <c r="C3888" t="n">
+        <v>201500</v>
+      </c>
+      <c r="D3888" t="n">
+        <v>196300</v>
+      </c>
+      <c r="E3888" t="n">
+        <v>196700</v>
+      </c>
+      <c r="F3888" t="n">
+        <v>110441</v>
+      </c>
+      <c r="G3888" t="n">
+        <v>-2.623762376237624</v>
+      </c>
+    </row>
+    <row r="3889">
+      <c r="A3889" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3889" t="n">
+        <v>193000</v>
+      </c>
+      <c r="C3889" t="n">
+        <v>194000</v>
+      </c>
+      <c r="D3889" t="n">
+        <v>188300</v>
+      </c>
+      <c r="E3889" t="n">
+        <v>188700</v>
+      </c>
+      <c r="F3889" t="n">
+        <v>171290</v>
+      </c>
+      <c r="G3889" t="n">
+        <v>-4.067107269954245</v>
+      </c>
+    </row>
+    <row r="3890">
+      <c r="A3890" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3890" t="n">
+        <v>188700</v>
+      </c>
+      <c r="C3890" t="n">
+        <v>190500</v>
+      </c>
+      <c r="D3890" t="n">
+        <v>184100</v>
+      </c>
+      <c r="E3890" t="n">
+        <v>184100</v>
+      </c>
+      <c r="F3890" t="n">
+        <v>133239</v>
+      </c>
+      <c r="G3890" t="n">
+        <v>-2.437731849496555</v>
+      </c>
+    </row>
+    <row r="3891">
+      <c r="A3891" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3891" t="n">
+        <v>184000</v>
+      </c>
+      <c r="C3891" t="n">
+        <v>187700</v>
+      </c>
+      <c r="D3891" t="n">
+        <v>184000</v>
+      </c>
+      <c r="E3891" t="n">
+        <v>186600</v>
+      </c>
+      <c r="F3891" t="n">
+        <v>112356</v>
+      </c>
+      <c r="G3891" t="n">
+        <v>1.35795763172189</v>
+      </c>
+    </row>
+    <row r="3892">
+      <c r="A3892" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3892" t="n">
+        <v>184700</v>
+      </c>
+      <c r="C3892" t="n">
+        <v>186400</v>
+      </c>
+      <c r="D3892" t="n">
+        <v>179500</v>
+      </c>
+      <c r="E3892" t="n">
+        <v>181300</v>
+      </c>
+      <c r="F3892" t="n">
+        <v>134717</v>
+      </c>
+      <c r="G3892" t="n">
+        <v>-2.840300107181136</v>
+      </c>
+    </row>
+    <row r="3893">
+      <c r="A3893" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3893" t="n">
+        <v>182500</v>
+      </c>
+      <c r="C3893" t="n">
+        <v>185000</v>
+      </c>
+      <c r="D3893" t="n">
+        <v>182300</v>
+      </c>
+      <c r="E3893" t="n">
+        <v>184500</v>
+      </c>
+      <c r="F3893" t="n">
+        <v>69115</v>
+      </c>
+      <c r="G3893" t="n">
+        <v>1.765030336458908</v>
+      </c>
+    </row>
+    <row r="3894">
+      <c r="A3894" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3894" t="n">
+        <v>184700</v>
+      </c>
+      <c r="C3894" t="n">
+        <v>189100</v>
+      </c>
+      <c r="D3894" t="n">
+        <v>184500</v>
+      </c>
+      <c r="E3894" t="n">
+        <v>187200</v>
+      </c>
+      <c r="F3894" t="n">
+        <v>80194</v>
+      </c>
+      <c r="G3894" t="n">
+        <v>1.463414634146342</v>
+      </c>
+    </row>
+    <row r="3895">
+      <c r="A3895" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3895" t="n">
+        <v>188900</v>
+      </c>
+      <c r="C3895" t="n">
+        <v>210000</v>
+      </c>
+      <c r="D3895" t="n">
+        <v>188900</v>
+      </c>
+      <c r="E3895" t="n">
+        <v>209000</v>
+      </c>
+      <c r="F3895" t="n">
+        <v>515047</v>
+      </c>
+      <c r="G3895" t="n">
+        <v>11.64529914529914</v>
+      </c>
+    </row>
+    <row r="3896">
+      <c r="A3896" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3896" t="n">
+        <v>207000</v>
+      </c>
+      <c r="C3896" t="n">
+        <v>215500</v>
+      </c>
+      <c r="D3896" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E3896" t="n">
+        <v>212500</v>
+      </c>
+      <c r="F3896" t="n">
+        <v>413615</v>
+      </c>
+      <c r="G3896" t="n">
+        <v>1.674641148325359</v>
+      </c>
+    </row>
+    <row r="3897">
+      <c r="A3897" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3897" t="n">
+        <v>213000</v>
+      </c>
+      <c r="C3897" t="n">
+        <v>215000</v>
+      </c>
+      <c r="D3897" t="n">
+        <v>210500</v>
+      </c>
+      <c r="E3897" t="n">
+        <v>213500</v>
+      </c>
+      <c r="F3897" t="n">
+        <v>145052</v>
+      </c>
+      <c r="G3897" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+    </row>
+    <row r="3898">
+      <c r="A3898" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3898" t="n">
+        <v>215000</v>
+      </c>
+      <c r="C3898" t="n">
+        <v>216500</v>
+      </c>
+      <c r="D3898" t="n">
+        <v>211500</v>
+      </c>
+      <c r="E3898" t="n">
+        <v>215000</v>
+      </c>
+      <c r="F3898" t="n">
+        <v>107652</v>
+      </c>
+      <c r="G3898" t="n">
+        <v>0.702576112412178</v>
+      </c>
+    </row>
+    <row r="3899">
+      <c r="A3899" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3899" t="n">
+        <v>218000</v>
+      </c>
+      <c r="C3899" t="n">
+        <v>225000</v>
+      </c>
+      <c r="D3899" t="n">
+        <v>217000</v>
+      </c>
+      <c r="E3899" t="n">
+        <v>222000</v>
+      </c>
+      <c r="F3899" t="n">
+        <v>408070</v>
+      </c>
+      <c r="G3899" t="n">
+        <v>3.255813953488372</v>
+      </c>
+    </row>
+    <row r="3900">
+      <c r="A3900" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3900" t="n">
+        <v>222500</v>
+      </c>
+      <c r="C3900" t="n">
+        <v>226000</v>
+      </c>
+      <c r="D3900" t="n">
+        <v>221500</v>
+      </c>
+      <c r="E3900" t="n">
+        <v>223500</v>
+      </c>
+      <c r="F3900" t="n">
+        <v>140927</v>
+      </c>
+      <c r="G3900" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="3901">
+      <c r="A3901" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3901" t="n">
+        <v>229500</v>
+      </c>
+      <c r="C3901" t="n">
+        <v>237500</v>
+      </c>
+      <c r="D3901" t="n">
+        <v>229500</v>
+      </c>
+      <c r="E3901" t="n">
+        <v>234500</v>
+      </c>
+      <c r="F3901" t="n">
+        <v>508130</v>
+      </c>
+      <c r="G3901" t="n">
+        <v>4.921700223713646</v>
+      </c>
+    </row>
+    <row r="3902">
+      <c r="A3902" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3902" t="n">
+        <v>237500</v>
+      </c>
+      <c r="C3902" t="n">
+        <v>240000</v>
+      </c>
+      <c r="D3902" t="n">
+        <v>234500</v>
+      </c>
+      <c r="E3902" t="n">
+        <v>239500</v>
+      </c>
+      <c r="F3902" t="n">
+        <v>284279</v>
+      </c>
+      <c r="G3902" t="n">
+        <v>2.132196162046908</v>
+      </c>
+    </row>
+    <row r="3903">
+      <c r="A3903" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3903" t="n">
+        <v>235500</v>
+      </c>
+      <c r="C3903" t="n">
+        <v>237000</v>
+      </c>
+      <c r="D3903" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E3903" t="n">
+        <v>233500</v>
+      </c>
+      <c r="F3903" t="n">
+        <v>143518</v>
+      </c>
+      <c r="G3903" t="n">
+        <v>-2.505219206680585</v>
+      </c>
+    </row>
+    <row r="3904">
+      <c r="A3904" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3904" t="n">
+        <v>234000</v>
+      </c>
+      <c r="C3904" t="n">
+        <v>236500</v>
+      </c>
+      <c r="D3904" t="n">
+        <v>230500</v>
+      </c>
+      <c r="E3904" t="n">
+        <v>232500</v>
+      </c>
+      <c r="F3904" t="n">
+        <v>191259</v>
+      </c>
+      <c r="G3904" t="n">
+        <v>-0.4282655246252677</v>
+      </c>
+    </row>
+    <row r="3905">
+      <c r="A3905" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3905" t="n">
+        <v>237500</v>
+      </c>
+      <c r="C3905" t="n">
+        <v>238000</v>
+      </c>
+      <c r="D3905" t="n">
+        <v>231500</v>
+      </c>
+      <c r="E3905" t="n">
+        <v>234000</v>
+      </c>
+      <c r="F3905" t="n">
+        <v>115582</v>
+      </c>
+      <c r="G3905" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+    </row>
+    <row r="3906">
+      <c r="A3906" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3906" t="n">
+        <v>235000</v>
+      </c>
+      <c r="C3906" t="n">
+        <v>236500</v>
+      </c>
+      <c r="D3906" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E3906" t="n">
+        <v>233500</v>
+      </c>
+      <c r="F3906" t="n">
+        <v>90232</v>
+      </c>
+      <c r="G3906" t="n">
+        <v>-0.2136752136752137</v>
+      </c>
+    </row>
+    <row r="3907">
+      <c r="A3907" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3907" t="n">
+        <v>235000</v>
+      </c>
+      <c r="C3907" t="n">
+        <v>245000</v>
+      </c>
+      <c r="D3907" t="n">
+        <v>233000</v>
+      </c>
+      <c r="E3907" t="n">
+        <v>242500</v>
+      </c>
+      <c r="F3907" t="n">
+        <v>262737</v>
+      </c>
+      <c r="G3907" t="n">
+        <v>3.854389721627409</v>
+      </c>
+    </row>
+    <row r="3908">
+      <c r="A3908" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3908" t="n">
+        <v>247000</v>
+      </c>
+      <c r="C3908" t="n">
+        <v>249000</v>
+      </c>
+      <c r="D3908" t="n">
+        <v>242500</v>
+      </c>
+      <c r="E3908" t="n">
+        <v>243500</v>
+      </c>
+      <c r="F3908" t="n">
+        <v>164013</v>
+      </c>
+      <c r="G3908" t="n">
+        <v>0.4123711340206186</v>
+      </c>
+    </row>
+    <row r="3909">
+      <c r="A3909" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3909" t="n">
+        <v>244000</v>
+      </c>
+      <c r="C3909" t="n">
+        <v>245000</v>
+      </c>
+      <c r="D3909" t="n">
+        <v>237000</v>
+      </c>
+      <c r="E3909" t="n">
+        <v>238500</v>
+      </c>
+      <c r="F3909" t="n">
+        <v>118417</v>
+      </c>
+      <c r="G3909" t="n">
+        <v>-2.053388090349076</v>
+      </c>
+    </row>
+    <row r="3910">
+      <c r="A3910" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3910" t="n">
+        <v>241000</v>
+      </c>
+      <c r="C3910" t="n">
+        <v>241500</v>
+      </c>
+      <c r="D3910" t="n">
+        <v>233000</v>
+      </c>
+      <c r="E3910" t="n">
+        <v>235500</v>
+      </c>
+      <c r="F3910" t="n">
+        <v>137778</v>
+      </c>
+      <c r="G3910" t="n">
+        <v>-1.257861635220126</v>
+      </c>
+    </row>
+    <row r="3911">
+      <c r="A3911" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3911" t="n">
+        <v>237000</v>
+      </c>
+      <c r="C3911" t="n">
+        <v>238000</v>
+      </c>
+      <c r="D3911" t="n">
+        <v>233500</v>
+      </c>
+      <c r="E3911" t="n">
+        <v>236000</v>
+      </c>
+      <c r="F3911" t="n">
+        <v>93554</v>
+      </c>
+      <c r="G3911" t="n">
+        <v>0.2123142250530786</v>
       </c>
     </row>
   </sheetData>
